--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_100ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_100ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -3102,28 +3102,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8243.642227767708</v>
+        <v>8414.210044158612</v>
       </c>
       <c r="AB2" t="n">
-        <v>11279.31497986</v>
+        <v>11512.69339116702</v>
       </c>
       <c r="AC2" t="n">
-        <v>10202.83298879973</v>
+        <v>10413.93809208026</v>
       </c>
       <c r="AD2" t="n">
-        <v>8243642.227767709</v>
+        <v>8414210.044158611</v>
       </c>
       <c r="AE2" t="n">
-        <v>11279314.97986</v>
+        <v>11512693.39116702</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.556737843680448e-07</v>
+        <v>1.028141984495609e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.35</v>
       </c>
       <c r="AH2" t="n">
-        <v>10202832.98879973</v>
+        <v>10413938.09208026</v>
       </c>
     </row>
     <row r="3">
@@ -3208,28 +3208,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2716.984179362174</v>
+        <v>2814.463643417028</v>
       </c>
       <c r="AB3" t="n">
-        <v>3717.497619085892</v>
+        <v>3850.873322296192</v>
       </c>
       <c r="AC3" t="n">
-        <v>3362.704863860872</v>
+        <v>3483.351377150751</v>
       </c>
       <c r="AD3" t="n">
-        <v>2716984.179362174</v>
+        <v>2814463.643417028</v>
       </c>
       <c r="AE3" t="n">
-        <v>3717497.619085893</v>
+        <v>3850873.322296192</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.045991345213673e-06</v>
+        <v>1.935357844272386e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.52916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>3362704.863860872</v>
+        <v>3483351.377150751</v>
       </c>
     </row>
     <row r="4">
@@ -3314,28 +3314,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2053.886185043621</v>
+        <v>2126.974537379669</v>
       </c>
       <c r="AB4" t="n">
-        <v>2810.217689440157</v>
+        <v>2910.220397536875</v>
       </c>
       <c r="AC4" t="n">
-        <v>2542.014457325288</v>
+        <v>2632.473047315937</v>
       </c>
       <c r="AD4" t="n">
-        <v>2053886.185043621</v>
+        <v>2126974.537379669</v>
       </c>
       <c r="AE4" t="n">
-        <v>2810217.689440157</v>
+        <v>2910220.397536875</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.227033919747867e-06</v>
+        <v>2.270334006718973e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.38541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2542014.457325288</v>
+        <v>2632473.047315937</v>
       </c>
     </row>
     <row r="5">
@@ -3420,28 +3420,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1774.988437935085</v>
+        <v>1847.991449416561</v>
       </c>
       <c r="AB5" t="n">
-        <v>2428.617487746037</v>
+        <v>2528.503428720556</v>
       </c>
       <c r="AC5" t="n">
-        <v>2196.833643301606</v>
+        <v>2287.186610260317</v>
       </c>
       <c r="AD5" t="n">
-        <v>1774988.437935085</v>
+        <v>1847991.449416562</v>
       </c>
       <c r="AE5" t="n">
-        <v>2428617.487746037</v>
+        <v>2528503.428720556</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.323171757473921e-06</v>
+        <v>2.448214176785291e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.48541666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2196833.643301606</v>
+        <v>2287186.610260317</v>
       </c>
     </row>
     <row r="6">
@@ -3526,28 +3526,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1596.518967414276</v>
+        <v>1669.607230241773</v>
       </c>
       <c r="AB6" t="n">
-        <v>2184.427684662111</v>
+        <v>2284.430270289281</v>
       </c>
       <c r="AC6" t="n">
-        <v>1975.94897230147</v>
+        <v>2066.407451510892</v>
       </c>
       <c r="AD6" t="n">
-        <v>1596518.967414276</v>
+        <v>1669607.230241773</v>
       </c>
       <c r="AE6" t="n">
-        <v>2184427.684662111</v>
+        <v>2284430.27028928</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.384880870308703e-06</v>
+        <v>2.562392191865796e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.97291666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1975948.97230147</v>
+        <v>2066407.451510892</v>
       </c>
     </row>
     <row r="7">
@@ -3632,28 +3632,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1481.136831858343</v>
+        <v>1554.225094685841</v>
       </c>
       <c r="AB7" t="n">
-        <v>2026.556756493919</v>
+        <v>2126.559342121089</v>
       </c>
       <c r="AC7" t="n">
-        <v>1833.145023944411</v>
+        <v>1923.603503153834</v>
       </c>
       <c r="AD7" t="n">
-        <v>1481136.831858343</v>
+        <v>1554225.094685841</v>
       </c>
       <c r="AE7" t="n">
-        <v>2026556.75649392</v>
+        <v>2126559.342121089</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.425582625582708e-06</v>
+        <v>2.637701095429533e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.659375</v>
       </c>
       <c r="AH7" t="n">
-        <v>1833145.023944411</v>
+        <v>1923603.503153834</v>
       </c>
     </row>
     <row r="8">
@@ -3738,28 +3738,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1401.855051407459</v>
+        <v>1462.747803129829</v>
       </c>
       <c r="AB8" t="n">
-        <v>1918.079926815718</v>
+        <v>2001.396076120874</v>
       </c>
       <c r="AC8" t="n">
-        <v>1735.02107064251</v>
+        <v>1810.385643592932</v>
       </c>
       <c r="AD8" t="n">
-        <v>1401855.051407459</v>
+        <v>1462747.803129829</v>
       </c>
       <c r="AE8" t="n">
-        <v>1918079.926815718</v>
+        <v>2001396.076120874</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.451404169251162e-06</v>
+        <v>2.685477711668894e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.46979166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1735021.07064251</v>
+        <v>1810385.643592932</v>
       </c>
     </row>
     <row r="9">
@@ -3844,28 +3844,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1381.44735487896</v>
+        <v>1442.340106601331</v>
       </c>
       <c r="AB9" t="n">
-        <v>1890.157216101398</v>
+        <v>1973.473365406554</v>
       </c>
       <c r="AC9" t="n">
-        <v>1709.763264248994</v>
+        <v>1785.127837199416</v>
       </c>
       <c r="AD9" t="n">
-        <v>1381447.35487896</v>
+        <v>1442340.106601331</v>
       </c>
       <c r="AE9" t="n">
-        <v>1890157.216101398</v>
+        <v>1973473.365406554</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.458114852916411e-06</v>
+        <v>2.697894233403417e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.421875</v>
       </c>
       <c r="AH9" t="n">
-        <v>1709763.264248994</v>
+        <v>1785127.837199416</v>
       </c>
     </row>
     <row r="10">
@@ -3950,28 +3950,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1387.799048780765</v>
+        <v>1448.691800503136</v>
       </c>
       <c r="AB10" t="n">
-        <v>1898.847883914805</v>
+        <v>1982.164033219962</v>
       </c>
       <c r="AC10" t="n">
-        <v>1717.624506923719</v>
+        <v>1792.989079874141</v>
       </c>
       <c r="AD10" t="n">
-        <v>1387799.048780765</v>
+        <v>1448691.800503136</v>
       </c>
       <c r="AE10" t="n">
-        <v>1898847.883914805</v>
+        <v>1982164.033219962</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.457968968488905e-06</v>
+        <v>2.697624309017883e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.42291666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1717624.506923719</v>
+        <v>1792989.079874141</v>
       </c>
     </row>
   </sheetData>
@@ -4247,28 +4247,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4923.395198836387</v>
+        <v>5052.625440095684</v>
       </c>
       <c r="AB2" t="n">
-        <v>6736.406515914952</v>
+        <v>6913.225033241804</v>
       </c>
       <c r="AC2" t="n">
-        <v>6093.4933326417</v>
+        <v>6253.43653884122</v>
       </c>
       <c r="AD2" t="n">
-        <v>4923395.198836387</v>
+        <v>5052625.440095684</v>
       </c>
       <c r="AE2" t="n">
-        <v>6736406.515914952</v>
+        <v>6913225.033241805</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.319396861723171e-07</v>
+        <v>1.395190003851853e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.47916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>6093493.3326417</v>
+        <v>6253436.53884122</v>
       </c>
     </row>
     <row r="3">
@@ -4353,28 +4353,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2098.16547078288</v>
+        <v>2180.340863511308</v>
       </c>
       <c r="AB3" t="n">
-        <v>2870.80256165283</v>
+        <v>2983.23855930633</v>
       </c>
       <c r="AC3" t="n">
-        <v>2596.817194365386</v>
+        <v>2698.522458207749</v>
       </c>
       <c r="AD3" t="n">
-        <v>2098165.47078288</v>
+        <v>2180340.863511308</v>
       </c>
       <c r="AE3" t="n">
-        <v>2870802.56165283</v>
+        <v>2983238.559306331</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.184233137607046e-06</v>
+        <v>2.257331125819689e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.275</v>
       </c>
       <c r="AH3" t="n">
-        <v>2596817.194365385</v>
+        <v>2698522.458207749</v>
       </c>
     </row>
     <row r="4">
@@ -4459,28 +4459,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1630.807805454416</v>
+        <v>1701.39007825072</v>
       </c>
       <c r="AB4" t="n">
-        <v>2231.343185585404</v>
+        <v>2327.916965095416</v>
       </c>
       <c r="AC4" t="n">
-        <v>2018.386923662962</v>
+        <v>2105.74383719869</v>
       </c>
       <c r="AD4" t="n">
-        <v>1630807.805454416</v>
+        <v>1701390.07825072</v>
       </c>
       <c r="AE4" t="n">
-        <v>2231343.185585404</v>
+        <v>2327916.965095416</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.349485499742858e-06</v>
+        <v>2.572327631843973e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.64895833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2018386.923662962</v>
+        <v>2105743.83719869</v>
       </c>
     </row>
     <row r="5">
@@ -4565,28 +4565,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1413.105673157363</v>
+        <v>1483.602605099095</v>
       </c>
       <c r="AB5" t="n">
-        <v>1933.473523836339</v>
+        <v>2029.930536224153</v>
       </c>
       <c r="AC5" t="n">
-        <v>1748.945524368532</v>
+        <v>1836.196814872321</v>
       </c>
       <c r="AD5" t="n">
-        <v>1413105.673157363</v>
+        <v>1483602.605099095</v>
       </c>
       <c r="AE5" t="n">
-        <v>1933473.523836339</v>
+        <v>2029930.536224153</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.435205446494585e-06</v>
+        <v>2.735723079717757e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.95416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1748945.524368532</v>
+        <v>1836196.814872321</v>
       </c>
     </row>
     <row r="6">
@@ -4671,28 +4671,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1294.927712647826</v>
+        <v>1365.424644589558</v>
       </c>
       <c r="AB6" t="n">
-        <v>1771.777224623533</v>
+        <v>1868.234237011347</v>
       </c>
       <c r="AC6" t="n">
-        <v>1602.681293010415</v>
+        <v>1689.932583514204</v>
       </c>
       <c r="AD6" t="n">
-        <v>1294927.712647826</v>
+        <v>1365424.644589558</v>
       </c>
       <c r="AE6" t="n">
-        <v>1771777.224623533</v>
+        <v>1868234.237011347</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.481083727854664e-06</v>
+        <v>2.823174164495276e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.61458333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1602681.293010415</v>
+        <v>1689932.583514204</v>
       </c>
     </row>
     <row r="7">
@@ -4777,28 +4777,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1271.067639899371</v>
+        <v>1329.971541417528</v>
       </c>
       <c r="AB7" t="n">
-        <v>1739.130820456978</v>
+        <v>1819.725737170853</v>
       </c>
       <c r="AC7" t="n">
-        <v>1573.150615838</v>
+        <v>1646.053666816379</v>
       </c>
       <c r="AD7" t="n">
-        <v>1271067.639899371</v>
+        <v>1329971.541417528</v>
       </c>
       <c r="AE7" t="n">
-        <v>1739130.820456978</v>
+        <v>1819725.737170853</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.490893228803365e-06</v>
+        <v>2.841872587227311e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.54479166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1573150.615838001</v>
+        <v>1646053.666816379</v>
       </c>
     </row>
     <row r="8">
@@ -4883,28 +4883,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1276.514556217833</v>
+        <v>1335.418457735991</v>
       </c>
       <c r="AB8" t="n">
-        <v>1746.583531664886</v>
+        <v>1827.178448378761</v>
       </c>
       <c r="AC8" t="n">
-        <v>1579.892050748171</v>
+        <v>1652.79510172655</v>
       </c>
       <c r="AD8" t="n">
-        <v>1276514.556217833</v>
+        <v>1335418.457735991</v>
       </c>
       <c r="AE8" t="n">
-        <v>1746583.531664886</v>
+        <v>1827178.448378761</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.490893228803365e-06</v>
+        <v>2.841872587227311e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.54479166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1579892.050748172</v>
+        <v>1652795.10172655</v>
       </c>
     </row>
   </sheetData>
@@ -5180,28 +5180,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1487.614793353412</v>
+        <v>1560.688298591156</v>
       </c>
       <c r="AB2" t="n">
-        <v>2035.420189198964</v>
+        <v>2135.402582840773</v>
       </c>
       <c r="AC2" t="n">
-        <v>1841.162543071992</v>
+        <v>1931.602757390798</v>
       </c>
       <c r="AD2" t="n">
-        <v>1487614.793353412</v>
+        <v>1560688.298591156</v>
       </c>
       <c r="AE2" t="n">
-        <v>2035420.189198964</v>
+        <v>2135402.582840773</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.30038171519931e-06</v>
+        <v>2.769472739663992e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.48854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1841162.543071992</v>
+        <v>1931602.757390798</v>
       </c>
     </row>
     <row r="3">
@@ -5286,28 +5286,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1035.914076661604</v>
+        <v>1098.524139408157</v>
       </c>
       <c r="AB3" t="n">
-        <v>1417.383340992033</v>
+        <v>1503.049191002891</v>
       </c>
       <c r="AC3" t="n">
-        <v>1282.110264237765</v>
+        <v>1359.600285756364</v>
       </c>
       <c r="AD3" t="n">
-        <v>1035914.076661604</v>
+        <v>1098524.139408157</v>
       </c>
       <c r="AE3" t="n">
-        <v>1417383.340992033</v>
+        <v>1503049.191002891</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.539677547535261e-06</v>
+        <v>3.279110238118089e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.39270833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1282110.264237765</v>
+        <v>1359600.285756364</v>
       </c>
     </row>
     <row r="4">
@@ -5392,28 +5392,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1041.053655642153</v>
+        <v>1103.663718388706</v>
       </c>
       <c r="AB4" t="n">
-        <v>1424.415539695442</v>
+        <v>1510.081389706301</v>
       </c>
       <c r="AC4" t="n">
-        <v>1288.471319766674</v>
+        <v>1365.961341285273</v>
       </c>
       <c r="AD4" t="n">
-        <v>1041053.655642153</v>
+        <v>1103663.718388706</v>
       </c>
       <c r="AE4" t="n">
-        <v>1424415.539695442</v>
+        <v>1510081.389706301</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.541529943140958e-06</v>
+        <v>3.283055355980858e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.37916666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1288471.319766674</v>
+        <v>1365961.341285273</v>
       </c>
     </row>
   </sheetData>
@@ -5689,28 +5689,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2325.181323640452</v>
+        <v>2412.955692010054</v>
       </c>
       <c r="AB2" t="n">
-        <v>3181.415666765331</v>
+        <v>3301.512429900465</v>
       </c>
       <c r="AC2" t="n">
-        <v>2877.785820674059</v>
+        <v>2986.420717292438</v>
       </c>
       <c r="AD2" t="n">
-        <v>2325181.323640452</v>
+        <v>2412955.692010054</v>
       </c>
       <c r="AE2" t="n">
-        <v>3181415.666765331</v>
+        <v>3301512.429900465</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.067465523435792e-06</v>
+        <v>2.167324069204475e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.72083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2877785.820674059</v>
+        <v>2986420.717292437</v>
       </c>
     </row>
     <row r="3">
@@ -5795,28 +5795,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1284.172522749153</v>
+        <v>1350.003299026356</v>
       </c>
       <c r="AB3" t="n">
-        <v>1757.061499318679</v>
+        <v>1847.134071670024</v>
       </c>
       <c r="AC3" t="n">
-        <v>1589.370015875006</v>
+        <v>1670.846188338789</v>
       </c>
       <c r="AD3" t="n">
-        <v>1284172.522749153</v>
+        <v>1350003.299026356</v>
       </c>
       <c r="AE3" t="n">
-        <v>1757061.499318679</v>
+        <v>1847134.071670024</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.446700935776248e-06</v>
+        <v>2.937303069945094e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.6</v>
       </c>
       <c r="AH3" t="n">
-        <v>1589370.015875006</v>
+        <v>1670846.188338789</v>
       </c>
     </row>
     <row r="4">
@@ -5901,28 +5901,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1105.813433116362</v>
+        <v>1171.558868538993</v>
       </c>
       <c r="AB4" t="n">
-        <v>1513.0227242354</v>
+        <v>1602.978529464549</v>
       </c>
       <c r="AC4" t="n">
-        <v>1368.621958975104</v>
+        <v>1449.992508406947</v>
       </c>
       <c r="AD4" t="n">
-        <v>1105813.433116362</v>
+        <v>1171558.868538993</v>
       </c>
       <c r="AE4" t="n">
-        <v>1513022.7242354</v>
+        <v>1602978.529464548</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.534662930312309e-06</v>
+        <v>3.115896330099884e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.934375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1368621.958975104</v>
+        <v>1449992.508406947</v>
       </c>
     </row>
     <row r="5">
@@ -6007,28 +6007,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1108.139951223481</v>
+        <v>1173.885386646111</v>
       </c>
       <c r="AB5" t="n">
-        <v>1516.205968948295</v>
+        <v>1606.161774177443</v>
       </c>
       <c r="AC5" t="n">
-        <v>1371.501399280311</v>
+        <v>1452.871948712155</v>
       </c>
       <c r="AD5" t="n">
-        <v>1108139.951223481</v>
+        <v>1173885.386646111</v>
       </c>
       <c r="AE5" t="n">
-        <v>1516205.968948295</v>
+        <v>1606161.774177443</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.537562776286025e-06</v>
+        <v>3.121784019995097e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.91354166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1371501.399280312</v>
+        <v>1452871.948712155</v>
       </c>
     </row>
   </sheetData>
@@ -6304,28 +6304,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1049.140287406783</v>
+        <v>1109.333965842723</v>
       </c>
       <c r="AB2" t="n">
-        <v>1435.480026032824</v>
+        <v>1517.83967242655</v>
       </c>
       <c r="AC2" t="n">
-        <v>1298.479827057121</v>
+        <v>1372.979184391519</v>
       </c>
       <c r="AD2" t="n">
-        <v>1049140.287406783</v>
+        <v>1109333.965842723</v>
       </c>
       <c r="AE2" t="n">
-        <v>1435480.026032824</v>
+        <v>1517839.67242655</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.477880957191651e-06</v>
+        <v>3.290952225984982e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1298479.827057121</v>
+        <v>1372979.184391519</v>
       </c>
     </row>
     <row r="3">
@@ -6410,28 +6410,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>984.9407477089053</v>
+        <v>1055.095484078716</v>
       </c>
       <c r="AB3" t="n">
-        <v>1347.639383534389</v>
+        <v>1443.628188844098</v>
       </c>
       <c r="AC3" t="n">
-        <v>1219.02257219362</v>
+        <v>1305.850340645705</v>
       </c>
       <c r="AD3" t="n">
-        <v>984940.7477089053</v>
+        <v>1055095.484078716</v>
       </c>
       <c r="AE3" t="n">
-        <v>1347639.383534389</v>
+        <v>1443628.188844098</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.520730760092474e-06</v>
+        <v>3.386370367448452e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.98020833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1219022.57219362</v>
+        <v>1305850.340645705</v>
       </c>
     </row>
   </sheetData>
@@ -6707,28 +6707,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5567.211069853019</v>
+        <v>5709.652492929551</v>
       </c>
       <c r="AB2" t="n">
-        <v>7617.303793791593</v>
+        <v>7812.198432916994</v>
       </c>
       <c r="AC2" t="n">
-        <v>6890.319010664857</v>
+        <v>7066.613178968464</v>
       </c>
       <c r="AD2" t="n">
-        <v>5567211.069853019</v>
+        <v>5709652.492929551</v>
       </c>
       <c r="AE2" t="n">
-        <v>7617303.793791593</v>
+        <v>7812198.432916993</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.855818344437231e-07</v>
+        <v>1.296273224433982e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.72395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>6890319.010664857</v>
+        <v>7066613.178968464</v>
       </c>
     </row>
     <row r="3">
@@ -6813,28 +6813,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2241.595406146745</v>
+        <v>2324.736018439888</v>
       </c>
       <c r="AB3" t="n">
-        <v>3067.049726900009</v>
+        <v>3180.80638054444</v>
       </c>
       <c r="AC3" t="n">
-        <v>2774.334805595884</v>
+        <v>2877.234683874952</v>
       </c>
       <c r="AD3" t="n">
-        <v>2241595.406146745</v>
+        <v>2324736.018439888</v>
       </c>
       <c r="AE3" t="n">
-        <v>3067049.726900009</v>
+        <v>3180806.38054444</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.147721421797804e-06</v>
+        <v>2.170069966035423e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.575</v>
       </c>
       <c r="AH3" t="n">
-        <v>2774334.805595884</v>
+        <v>2877234.683874952</v>
       </c>
     </row>
     <row r="4">
@@ -6919,28 +6919,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1734.049335229208</v>
+        <v>1805.312717194759</v>
       </c>
       <c r="AB4" t="n">
-        <v>2372.602801318113</v>
+        <v>2470.108504441906</v>
       </c>
       <c r="AC4" t="n">
-        <v>2146.164919929258</v>
+        <v>2234.36481559703</v>
       </c>
       <c r="AD4" t="n">
-        <v>1734049.335229208</v>
+        <v>1805312.717194759</v>
       </c>
       <c r="AE4" t="n">
-        <v>2372602.801318113</v>
+        <v>2470108.504441906</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.316424805142594e-06</v>
+        <v>2.489048194037503e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.834375</v>
       </c>
       <c r="AH4" t="n">
-        <v>2146164.919929258</v>
+        <v>2234364.815597029</v>
       </c>
     </row>
     <row r="5">
@@ -7025,28 +7025,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1509.517150737193</v>
+        <v>1568.903391883703</v>
       </c>
       <c r="AB5" t="n">
-        <v>2065.387960835265</v>
+        <v>2146.642835907974</v>
       </c>
       <c r="AC5" t="n">
-        <v>1868.270232643356</v>
+        <v>1941.770256481059</v>
       </c>
       <c r="AD5" t="n">
-        <v>1509517.150737193</v>
+        <v>1568903.391883703</v>
       </c>
       <c r="AE5" t="n">
-        <v>2065387.960835265</v>
+        <v>2146642.835907974</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.407058005769316e-06</v>
+        <v>2.660414156953514e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.071875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1868270.232643356</v>
+        <v>1941770.256481059</v>
       </c>
     </row>
     <row r="6">
@@ -7131,28 +7131,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1346.286880972891</v>
+        <v>1417.464922083871</v>
       </c>
       <c r="AB6" t="n">
-        <v>1842.049104532481</v>
+        <v>1939.438040534076</v>
       </c>
       <c r="AC6" t="n">
-        <v>1666.246523328056</v>
+        <v>1754.340795963889</v>
       </c>
       <c r="AD6" t="n">
-        <v>1346286.880972891</v>
+        <v>1417464.922083871</v>
       </c>
       <c r="AE6" t="n">
-        <v>1842049.104532481</v>
+        <v>1939438.040534076</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.463142907147239e-06</v>
+        <v>2.766457450837183e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.64791666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1666246.523328056</v>
+        <v>1754340.795963889</v>
       </c>
     </row>
     <row r="7">
@@ -7237,28 +7237,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1299.34948910846</v>
+        <v>1358.820981600991</v>
       </c>
       <c r="AB7" t="n">
-        <v>1777.827294251982</v>
+        <v>1859.19881397734</v>
       </c>
       <c r="AC7" t="n">
-        <v>1608.153952484851</v>
+        <v>1681.759488573266</v>
       </c>
       <c r="AD7" t="n">
-        <v>1299349.48910846</v>
+        <v>1358820.981600991</v>
       </c>
       <c r="AE7" t="n">
-        <v>1777827.294251982</v>
+        <v>1859198.81397734</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.480940515851166e-06</v>
+        <v>2.800108522762935e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.51979166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1608153.952484851</v>
+        <v>1681759.488573266</v>
       </c>
     </row>
     <row r="8">
@@ -7343,28 +7343,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1301.697308411739</v>
+        <v>1361.168800904269</v>
       </c>
       <c r="AB8" t="n">
-        <v>1781.039684201206</v>
+        <v>1862.411203926564</v>
       </c>
       <c r="AC8" t="n">
-        <v>1611.059756445938</v>
+        <v>1684.665292534354</v>
       </c>
       <c r="AD8" t="n">
-        <v>1301697.308411739</v>
+        <v>1361168.800904269</v>
       </c>
       <c r="AE8" t="n">
-        <v>1781039.684201206</v>
+        <v>1862411.203926564</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.481688314536205e-06</v>
+        <v>2.801522433348051e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.51458333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1611059.756445938</v>
+        <v>1684665.292534353</v>
       </c>
     </row>
   </sheetData>
@@ -7640,28 +7640,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>972.848987658364</v>
+        <v>1041.360769697384</v>
       </c>
       <c r="AB2" t="n">
-        <v>1331.094903982434</v>
+        <v>1424.835746694725</v>
       </c>
       <c r="AC2" t="n">
-        <v>1204.057074549781</v>
+        <v>1288.85142279971</v>
       </c>
       <c r="AD2" t="n">
-        <v>972848.987658364</v>
+        <v>1041360.769697384</v>
       </c>
       <c r="AE2" t="n">
-        <v>1331094.903982434</v>
+        <v>1424835.746694725</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.484693567263757e-06</v>
+        <v>3.403759103552058e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.55729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1204057.074549781</v>
+        <v>1288851.42279971</v>
       </c>
     </row>
     <row r="3">
@@ -7746,28 +7746,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>977.7297703921328</v>
+        <v>1036.612645155497</v>
       </c>
       <c r="AB3" t="n">
-        <v>1337.773006243714</v>
+        <v>1418.339153224045</v>
       </c>
       <c r="AC3" t="n">
-        <v>1210.097828104019</v>
+        <v>1282.974855091845</v>
       </c>
       <c r="AD3" t="n">
-        <v>977729.7703921328</v>
+        <v>1036612.645155497</v>
       </c>
       <c r="AE3" t="n">
-        <v>1337773.006243714</v>
+        <v>1418339.153224045</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.489347217986947e-06</v>
+        <v>3.414427908457706e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.51875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1210097.828104019</v>
+        <v>1282974.855091845</v>
       </c>
     </row>
   </sheetData>
@@ -8043,28 +8043,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3411.627291690702</v>
+        <v>3514.099656344595</v>
       </c>
       <c r="AB2" t="n">
-        <v>4667.938970865106</v>
+        <v>4808.146180946239</v>
       </c>
       <c r="AC2" t="n">
-        <v>4222.437426979057</v>
+        <v>4349.263457712096</v>
       </c>
       <c r="AD2" t="n">
-        <v>3411627.291690702</v>
+        <v>3514099.656344595</v>
       </c>
       <c r="AE2" t="n">
-        <v>4667938.970865106</v>
+        <v>4808146.180946239</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.853579286358792e-07</v>
+        <v>1.735289304538023e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.29375</v>
       </c>
       <c r="AH2" t="n">
-        <v>4222437.426979057</v>
+        <v>4349263.457712096</v>
       </c>
     </row>
     <row r="3">
@@ -8149,28 +8149,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1683.369674893564</v>
+        <v>1751.656167547486</v>
       </c>
       <c r="AB3" t="n">
-        <v>2303.260654218067</v>
+        <v>2396.693246054601</v>
       </c>
       <c r="AC3" t="n">
-        <v>2083.440690026127</v>
+        <v>2167.956206431247</v>
       </c>
       <c r="AD3" t="n">
-        <v>1683369.674893564</v>
+        <v>1751656.167547486</v>
       </c>
       <c r="AE3" t="n">
-        <v>2303260.654218067</v>
+        <v>2396693.246054601</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.303780511347356e-06</v>
+        <v>2.555391784079965e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>2083440.690026126</v>
+        <v>2167956.206431247</v>
       </c>
     </row>
     <row r="4">
@@ -8255,28 +8255,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1326.755259650369</v>
+        <v>1383.731802492205</v>
       </c>
       <c r="AB4" t="n">
-        <v>1815.325078564688</v>
+        <v>1893.282898108555</v>
       </c>
       <c r="AC4" t="n">
-        <v>1642.073000891223</v>
+        <v>1712.590635552311</v>
       </c>
       <c r="AD4" t="n">
-        <v>1326755.259650369</v>
+        <v>1383731.802492205</v>
       </c>
       <c r="AE4" t="n">
-        <v>1815325.078564688</v>
+        <v>1893282.898108555</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.456937792644571e-06</v>
+        <v>2.855577938798959e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.11770833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1642073.000891223</v>
+        <v>1712590.635552311</v>
       </c>
     </row>
     <row r="5">
@@ -8361,28 +8361,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1192.134540814344</v>
+        <v>1260.420943959714</v>
       </c>
       <c r="AB5" t="n">
-        <v>1631.131072006281</v>
+        <v>1724.563541373265</v>
       </c>
       <c r="AC5" t="n">
-        <v>1475.458211800838</v>
+        <v>1559.973617424733</v>
       </c>
       <c r="AD5" t="n">
-        <v>1192134.540814344</v>
+        <v>1260420.943959714</v>
       </c>
       <c r="AE5" t="n">
-        <v>1631131.072006281</v>
+        <v>1724563.541373265</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.512447589013206e-06</v>
+        <v>2.964376372539752e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.70833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1475458.211800838</v>
+        <v>1559973.617424733</v>
       </c>
     </row>
     <row r="6">
@@ -8467,28 +8467,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1189.105632585939</v>
+        <v>1257.39203573131</v>
       </c>
       <c r="AB6" t="n">
-        <v>1626.986786142177</v>
+        <v>1720.419255509162</v>
       </c>
       <c r="AC6" t="n">
-        <v>1471.709450763063</v>
+        <v>1556.224856386957</v>
       </c>
       <c r="AD6" t="n">
-        <v>1189105.632585939</v>
+        <v>1257392.03573131</v>
       </c>
       <c r="AE6" t="n">
-        <v>1626986.786142177</v>
+        <v>1720419.255509162</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.516179340029585e-06</v>
+        <v>2.971690552959301e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.68229166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1471709.450763063</v>
+        <v>1556224.856386957</v>
       </c>
     </row>
   </sheetData>
@@ -8764,28 +8764,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4354.14155297313</v>
+        <v>4470.515074287156</v>
       </c>
       <c r="AB2" t="n">
-        <v>5957.528563946382</v>
+        <v>6116.755949845658</v>
       </c>
       <c r="AC2" t="n">
-        <v>5388.950399246967</v>
+        <v>5532.981346913051</v>
       </c>
       <c r="AD2" t="n">
-        <v>4354141.552973131</v>
+        <v>4470515.074287157</v>
       </c>
       <c r="AE2" t="n">
-        <v>5957528.563946382</v>
+        <v>6116755.949845658</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.807878823010116e-07</v>
+        <v>1.501223267093334e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.32291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>5388950.399246967</v>
+        <v>5532981.346913051</v>
       </c>
     </row>
     <row r="3">
@@ -8870,28 +8870,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1948.092564632508</v>
+        <v>2029.528364639968</v>
       </c>
       <c r="AB3" t="n">
-        <v>2665.466190708541</v>
+        <v>2776.890244972685</v>
       </c>
       <c r="AC3" t="n">
-        <v>2411.077838472612</v>
+        <v>2511.867737382428</v>
       </c>
       <c r="AD3" t="n">
-        <v>1948092.564632508</v>
+        <v>2029528.364639968</v>
       </c>
       <c r="AE3" t="n">
-        <v>2665466.190708541</v>
+        <v>2776890.244972685</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.222294864331906e-06</v>
+        <v>2.35011010183216e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.98333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2411077.838472612</v>
+        <v>2511867.737382428</v>
       </c>
     </row>
     <row r="4">
@@ -8976,28 +8976,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1533.045407711393</v>
+        <v>1602.750079106829</v>
       </c>
       <c r="AB4" t="n">
-        <v>2097.580360020806</v>
+        <v>2192.953366577109</v>
       </c>
       <c r="AC4" t="n">
-        <v>1897.390234432945</v>
+        <v>1983.660975100369</v>
       </c>
       <c r="AD4" t="n">
-        <v>1533045.407711393</v>
+        <v>1602750.079106829</v>
       </c>
       <c r="AE4" t="n">
-        <v>2097580.360020806</v>
+        <v>2192953.366577109</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.382413511024269e-06</v>
+        <v>2.657970717191202e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.47916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1897390.234432945</v>
+        <v>1983660.975100369</v>
       </c>
     </row>
     <row r="5">
@@ -9082,28 +9082,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1316.729747052588</v>
+        <v>1386.519669794044</v>
       </c>
       <c r="AB5" t="n">
-        <v>1801.607729934004</v>
+        <v>1897.097381142957</v>
       </c>
       <c r="AC5" t="n">
-        <v>1629.664816761432</v>
+        <v>1716.04106967957</v>
       </c>
       <c r="AD5" t="n">
-        <v>1316729.747052589</v>
+        <v>1386519.669794044</v>
       </c>
       <c r="AE5" t="n">
-        <v>1801607.729934004</v>
+        <v>1897097.381142957</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.467119474450486e-06</v>
+        <v>2.820835134070011e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.81666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1629664.816761432</v>
+        <v>1716041.069679569</v>
       </c>
     </row>
     <row r="6">
@@ -9188,28 +9188,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1246.22599459402</v>
+        <v>1316.015917335475</v>
       </c>
       <c r="AB6" t="n">
-        <v>1705.141385414153</v>
+        <v>1800.631036623106</v>
       </c>
       <c r="AC6" t="n">
-        <v>1542.405084771191</v>
+        <v>1628.781337689328</v>
       </c>
       <c r="AD6" t="n">
-        <v>1246225.99459402</v>
+        <v>1316015.917335476</v>
       </c>
       <c r="AE6" t="n">
-        <v>1705141.385414153</v>
+        <v>1800631.036623106</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.497132198901862e-06</v>
+        <v>2.878540691849013e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.6</v>
       </c>
       <c r="AH6" t="n">
-        <v>1542405.084771191</v>
+        <v>1628781.337689328</v>
       </c>
     </row>
     <row r="7">
@@ -9294,28 +9294,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1244.047067419466</v>
+        <v>1313.836990160921</v>
       </c>
       <c r="AB7" t="n">
-        <v>1702.160081126446</v>
+        <v>1797.649732335398</v>
       </c>
       <c r="AC7" t="n">
-        <v>1539.708311980415</v>
+        <v>1626.084564898552</v>
       </c>
       <c r="AD7" t="n">
-        <v>1244047.067419466</v>
+        <v>1313836.990160921</v>
       </c>
       <c r="AE7" t="n">
-        <v>1702160.081126446</v>
+        <v>1797649.732335398</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.499874478293358e-06</v>
+        <v>2.883813280884658e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.58125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1539708.311980415</v>
+        <v>1626084.564898552</v>
       </c>
     </row>
   </sheetData>
@@ -9591,28 +9591,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7200.952797975542</v>
+        <v>7358.159918687346</v>
       </c>
       <c r="AB2" t="n">
-        <v>9852.661301807164</v>
+        <v>10067.75901985375</v>
       </c>
       <c r="AC2" t="n">
-        <v>8912.337135459302</v>
+        <v>9106.906229187058</v>
       </c>
       <c r="AD2" t="n">
-        <v>7200952.797975542</v>
+        <v>7358159.918687346</v>
       </c>
       <c r="AE2" t="n">
-        <v>9852661.301807163</v>
+        <v>10067759.01985375</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.974667212771204e-07</v>
+        <v>1.113035186024866e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.6375</v>
       </c>
       <c r="AH2" t="n">
-        <v>8912337.135459302</v>
+        <v>9106906.229187058</v>
       </c>
     </row>
     <row r="3">
@@ -9697,28 +9697,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2560.023212947334</v>
+        <v>2644.5879496769</v>
       </c>
       <c r="AB3" t="n">
-        <v>3502.736700207974</v>
+        <v>3618.441903734255</v>
       </c>
       <c r="AC3" t="n">
-        <v>3168.440425661828</v>
+        <v>3273.10288695683</v>
       </c>
       <c r="AD3" t="n">
-        <v>2560023.212947334</v>
+        <v>2644587.9496769</v>
       </c>
       <c r="AE3" t="n">
-        <v>3502736.700207974</v>
+        <v>3618441.903734256</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.077734088171306e-06</v>
+        <v>2.007736863986278e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.2125</v>
       </c>
       <c r="AH3" t="n">
-        <v>3168440.425661828</v>
+        <v>3273102.886956831</v>
       </c>
     </row>
     <row r="4">
@@ -9803,28 +9803,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1952.230383551759</v>
+        <v>2024.702264841955</v>
       </c>
       <c r="AB4" t="n">
-        <v>2671.127737101547</v>
+        <v>2770.286962316547</v>
       </c>
       <c r="AC4" t="n">
-        <v>2416.1990548239</v>
+        <v>2505.894662755227</v>
       </c>
       <c r="AD4" t="n">
-        <v>1952230.383551759</v>
+        <v>2024702.264841955</v>
       </c>
       <c r="AE4" t="n">
-        <v>2671127.737101547</v>
+        <v>2770286.962316547</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.254930100757801e-06</v>
+        <v>2.337839595750975e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.20625</v>
       </c>
       <c r="AH4" t="n">
-        <v>2416199.0548239</v>
+        <v>2505894.662755227</v>
       </c>
     </row>
     <row r="5">
@@ -9909,28 +9909,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1688.232926362312</v>
+        <v>1760.619466797937</v>
       </c>
       <c r="AB5" t="n">
-        <v>2309.914769429121</v>
+        <v>2408.957227521924</v>
       </c>
       <c r="AC5" t="n">
-        <v>2089.459745820546</v>
+        <v>2179.049730719934</v>
       </c>
       <c r="AD5" t="n">
-        <v>1688232.926362312</v>
+        <v>1760619.466797937</v>
       </c>
       <c r="AE5" t="n">
-        <v>2309914.769429122</v>
+        <v>2408957.227521924</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.349483657681549e-06</v>
+        <v>2.513985700750726e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.35104166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2089459.745820546</v>
+        <v>2179049.730719934</v>
       </c>
     </row>
     <row r="6">
@@ -10015,28 +10015,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1519.202363242985</v>
+        <v>1591.67415502463</v>
       </c>
       <c r="AB6" t="n">
-        <v>2078.639695867108</v>
+        <v>2177.79879861256</v>
       </c>
       <c r="AC6" t="n">
-        <v>1880.257240682687</v>
+        <v>1969.952737832788</v>
       </c>
       <c r="AD6" t="n">
-        <v>1519202.363242985</v>
+        <v>1591674.15502463</v>
       </c>
       <c r="AE6" t="n">
-        <v>2078639.695867108</v>
+        <v>2177798.79861256</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.409039163986554e-06</v>
+        <v>2.624933091924753e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.87083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1880257.240682687</v>
+        <v>1969952.737832788</v>
       </c>
     </row>
     <row r="7">
@@ -10121,28 +10121,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1400.712253911814</v>
+        <v>1473.18404569346</v>
       </c>
       <c r="AB7" t="n">
-        <v>1916.51630086551</v>
+        <v>2015.675403610962</v>
       </c>
       <c r="AC7" t="n">
-        <v>1733.606674958427</v>
+        <v>1823.302172108528</v>
       </c>
       <c r="AD7" t="n">
-        <v>1400712.253911814</v>
+        <v>1473184.04569346</v>
       </c>
       <c r="AE7" t="n">
-        <v>1916516.30086551</v>
+        <v>2015675.403610962</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.449331037387964e-06</v>
+        <v>2.699993796077057e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.56875</v>
       </c>
       <c r="AH7" t="n">
-        <v>1733606.674958427</v>
+        <v>1823302.172108528</v>
       </c>
     </row>
     <row r="8">
@@ -10227,28 +10227,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1358.354884467179</v>
+        <v>1418.733910318006</v>
       </c>
       <c r="AB8" t="n">
-        <v>1858.561079316105</v>
+        <v>1941.174326219831</v>
       </c>
       <c r="AC8" t="n">
-        <v>1681.182618413033</v>
+        <v>1755.911372980687</v>
       </c>
       <c r="AD8" t="n">
-        <v>1358354.884467179</v>
+        <v>1418733.910318006</v>
       </c>
       <c r="AE8" t="n">
-        <v>1858561.079316105</v>
+        <v>1941174.326219831</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.462859695610336e-06</v>
+        <v>2.725196660244984e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.47083333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1681182.618413033</v>
+        <v>1755911.372980687</v>
       </c>
     </row>
     <row r="9">
@@ -10333,28 +10333,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1359.216165020196</v>
+        <v>1419.595190871023</v>
       </c>
       <c r="AB9" t="n">
-        <v>1859.739521365759</v>
+        <v>1942.352768269485</v>
       </c>
       <c r="AC9" t="n">
-        <v>1682.248591607423</v>
+        <v>1756.977346175076</v>
       </c>
       <c r="AD9" t="n">
-        <v>1359216.165020196</v>
+        <v>1419595.190871023</v>
       </c>
       <c r="AE9" t="n">
-        <v>1859739.521365759</v>
+        <v>1942352.768269485</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.465947758900225e-06</v>
+        <v>2.730949487935489e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.44895833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1682248.591607423</v>
+        <v>1756977.346175076</v>
       </c>
     </row>
   </sheetData>
@@ -10630,28 +10630,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2653.489989350106</v>
+        <v>2753.488999897517</v>
       </c>
       <c r="AB2" t="n">
-        <v>3630.622067145411</v>
+        <v>3767.445125021372</v>
       </c>
       <c r="AC2" t="n">
-        <v>3284.120592666991</v>
+        <v>3407.885449931633</v>
       </c>
       <c r="AD2" t="n">
-        <v>2653489.989350107</v>
+        <v>2753488.999897517</v>
       </c>
       <c r="AE2" t="n">
-        <v>3630622.067145411</v>
+        <v>3767445.125021372</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.002561804858476e-06</v>
+        <v>2.009632486027109e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.52916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3284120.592666991</v>
+        <v>3407885.449931633</v>
       </c>
     </row>
     <row r="3">
@@ -10736,28 +10736,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1411.303264334572</v>
+        <v>1478.026165269227</v>
       </c>
       <c r="AB3" t="n">
-        <v>1931.007388568331</v>
+        <v>2022.300605233765</v>
       </c>
       <c r="AC3" t="n">
-        <v>1746.714753589261</v>
+        <v>1829.29507378698</v>
       </c>
       <c r="AD3" t="n">
-        <v>1411303.264334572</v>
+        <v>1478026.165269227</v>
       </c>
       <c r="AE3" t="n">
-        <v>1931007.388568331</v>
+        <v>2022300.605233765</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.396936719844855e-06</v>
+        <v>2.800155959981601e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.8625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1746714.753589261</v>
+        <v>1829295.07378698</v>
       </c>
     </row>
     <row r="4">
@@ -10842,28 +10842,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1147.139831425757</v>
+        <v>1213.777391505839</v>
       </c>
       <c r="AB4" t="n">
-        <v>1569.567325594333</v>
+        <v>1660.74377513757</v>
       </c>
       <c r="AC4" t="n">
-        <v>1419.770022941187</v>
+        <v>1502.244720106967</v>
       </c>
       <c r="AD4" t="n">
-        <v>1147139.831425757</v>
+        <v>1213777.391505839</v>
       </c>
       <c r="AE4" t="n">
-        <v>1569567.325594333</v>
+        <v>1660743.77513757</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.520864940407336e-06</v>
+        <v>3.048569750304533e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.89583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1419770.022941187</v>
+        <v>1502244.720106967</v>
       </c>
     </row>
     <row r="5">
@@ -10948,28 +10948,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1133.009190180138</v>
+        <v>1199.646750260221</v>
       </c>
       <c r="AB5" t="n">
-        <v>1550.233158842184</v>
+        <v>1641.40960838542</v>
       </c>
       <c r="AC5" t="n">
-        <v>1402.281081928189</v>
+        <v>1484.755779093969</v>
       </c>
       <c r="AD5" t="n">
-        <v>1133009.190180138</v>
+        <v>1199646.750260221</v>
       </c>
       <c r="AE5" t="n">
-        <v>1550233.158842184</v>
+        <v>1641409.60838542</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.530569204148428e-06</v>
+        <v>3.06802192130543e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.82708333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1402281.081928188</v>
+        <v>1484755.779093969</v>
       </c>
     </row>
   </sheetData>
@@ -11245,28 +11245,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1753.660267555537</v>
+        <v>1828.091759257621</v>
       </c>
       <c r="AB2" t="n">
-        <v>2399.43534410027</v>
+        <v>2501.275794732724</v>
       </c>
       <c r="AC2" t="n">
-        <v>2170.436602487996</v>
+        <v>2262.557543446059</v>
       </c>
       <c r="AD2" t="n">
-        <v>1753660.267555537</v>
+        <v>1828091.759257621</v>
       </c>
       <c r="AE2" t="n">
-        <v>2399435.34410027</v>
+        <v>2501275.794732724</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.214526553979918e-06</v>
+        <v>2.540865504886739e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.2125</v>
       </c>
       <c r="AH2" t="n">
-        <v>2170436.602487996</v>
+        <v>2262557.543446059</v>
       </c>
     </row>
     <row r="3">
@@ -11351,28 +11351,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1077.055458129764</v>
+        <v>1140.756359970404</v>
       </c>
       <c r="AB3" t="n">
-        <v>1473.674794146421</v>
+        <v>1560.833178330234</v>
       </c>
       <c r="AC3" t="n">
-        <v>1333.02934010865</v>
+        <v>1411.86945043352</v>
       </c>
       <c r="AD3" t="n">
-        <v>1077055.458129764</v>
+        <v>1140756.359970404</v>
       </c>
       <c r="AE3" t="n">
-        <v>1473674.794146421</v>
+        <v>1560833.178330234</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.531373978077285e-06</v>
+        <v>3.203730131076321e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.27291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1333029.34010865</v>
+        <v>1411869.45043352</v>
       </c>
     </row>
     <row r="4">
@@ -11457,28 +11457,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1061.877469600686</v>
+        <v>1115.103804143597</v>
       </c>
       <c r="AB4" t="n">
-        <v>1452.907600635342</v>
+        <v>1525.734219737107</v>
       </c>
       <c r="AC4" t="n">
-        <v>1314.244138399329</v>
+        <v>1380.120287186823</v>
       </c>
       <c r="AD4" t="n">
-        <v>1061877.469600686</v>
+        <v>1115103.804143597</v>
       </c>
       <c r="AE4" t="n">
-        <v>1452907.600635342</v>
+        <v>1525734.219737107</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.543636901394861e-06</v>
+        <v>3.229384933554369e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.18333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1314244.138399329</v>
+        <v>1380120.287186823</v>
       </c>
     </row>
   </sheetData>
@@ -20527,28 +20527,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1239.743563327628</v>
+        <v>1311.515918893315</v>
       </c>
       <c r="AB2" t="n">
-        <v>1696.271836970793</v>
+        <v>1794.473940228621</v>
       </c>
       <c r="AC2" t="n">
-        <v>1534.382033582776</v>
+        <v>1623.211865933194</v>
       </c>
       <c r="AD2" t="n">
-        <v>1239743.563327628</v>
+        <v>1311515.918893315</v>
       </c>
       <c r="AE2" t="n">
-        <v>1696271.836970793</v>
+        <v>1794473.940228621</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.395054403866549e-06</v>
+        <v>3.03264706510947e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="AH2" t="n">
-        <v>1534382.033582776</v>
+        <v>1623211.865933194</v>
       </c>
     </row>
     <row r="3">
@@ -20633,28 +20633,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1007.539504587167</v>
+        <v>1069.131815804531</v>
       </c>
       <c r="AB3" t="n">
-        <v>1378.559999682017</v>
+        <v>1462.83331715061</v>
       </c>
       <c r="AC3" t="n">
-        <v>1246.992168133476</v>
+        <v>1323.222558461211</v>
       </c>
       <c r="AD3" t="n">
-        <v>1007539.504587167</v>
+        <v>1069131.815804531</v>
       </c>
       <c r="AE3" t="n">
-        <v>1378559.999682017</v>
+        <v>1462833.31715061</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.535451252817975e-06</v>
+        <v>3.337849565272244e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.63020833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1246992.168133476</v>
+        <v>1323222.558461211</v>
       </c>
     </row>
   </sheetData>
@@ -20930,28 +20930,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>964.4088129883</v>
+        <v>1030.824862174992</v>
       </c>
       <c r="AB2" t="n">
-        <v>1319.546684644625</v>
+        <v>1410.420053211154</v>
       </c>
       <c r="AC2" t="n">
-        <v>1193.611001057545</v>
+        <v>1275.811542869658</v>
       </c>
       <c r="AD2" t="n">
-        <v>964408.8129883</v>
+        <v>1030824.862174992</v>
       </c>
       <c r="AE2" t="n">
-        <v>1319546.684644625</v>
+        <v>1410420.053211153</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.422986566080989e-06</v>
+        <v>3.384611916154729e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.46875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1193611.001057545</v>
+        <v>1275811.542869658</v>
       </c>
     </row>
   </sheetData>
@@ -21227,28 +21227,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3854.954958432906</v>
+        <v>3970.01692924385</v>
       </c>
       <c r="AB2" t="n">
-        <v>5274.519442738128</v>
+        <v>5431.952307377566</v>
       </c>
       <c r="AC2" t="n">
-        <v>4771.126709957535</v>
+        <v>4913.534402954192</v>
       </c>
       <c r="AD2" t="n">
-        <v>3854954.958432906</v>
+        <v>3970016.929243851</v>
       </c>
       <c r="AE2" t="n">
-        <v>5274519.442738129</v>
+        <v>5431952.307377567</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.318197867626472e-07</v>
+        <v>1.614211340351468e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.26875</v>
       </c>
       <c r="AH2" t="n">
-        <v>4771126.709957535</v>
+        <v>4913534.402954192</v>
       </c>
     </row>
     <row r="3">
@@ -21333,28 +21333,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1813.197243119063</v>
+        <v>1893.774696372566</v>
       </c>
       <c r="AB3" t="n">
-        <v>2480.896460652273</v>
+        <v>2591.146087020067</v>
       </c>
       <c r="AC3" t="n">
-        <v>2244.123184407671</v>
+        <v>2343.850741171244</v>
       </c>
       <c r="AD3" t="n">
-        <v>1813197.243119063</v>
+        <v>1893774.696372566</v>
       </c>
       <c r="AE3" t="n">
-        <v>2480896.460652273</v>
+        <v>2591146.087020067</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.262655044427355e-06</v>
+        <v>2.450280847007797e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.69375</v>
       </c>
       <c r="AH3" t="n">
-        <v>2244123.184407671</v>
+        <v>2343850.741171245</v>
       </c>
     </row>
     <row r="4">
@@ -21439,28 +21439,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1431.416654008057</v>
+        <v>1500.385599614387</v>
       </c>
       <c r="AB4" t="n">
-        <v>1958.527415659721</v>
+        <v>2052.893769733438</v>
       </c>
       <c r="AC4" t="n">
-        <v>1771.608307919648</v>
+        <v>1856.968469604579</v>
       </c>
       <c r="AD4" t="n">
-        <v>1431416.654008057</v>
+        <v>1500385.599614387</v>
       </c>
       <c r="AE4" t="n">
-        <v>1958527.415659721</v>
+        <v>2052893.769733438</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.418371216126171e-06</v>
+        <v>2.752460254413584e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.3</v>
       </c>
       <c r="AH4" t="n">
-        <v>1771608.307919648</v>
+        <v>1856968.469604579</v>
       </c>
     </row>
     <row r="5">
@@ -21545,28 +21545,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1244.478477078711</v>
+        <v>1313.532674031061</v>
       </c>
       <c r="AB5" t="n">
-        <v>1702.750354854676</v>
+        <v>1797.233353581043</v>
       </c>
       <c r="AC5" t="n">
-        <v>1540.242250812478</v>
+        <v>1625.707924748121</v>
       </c>
       <c r="AD5" t="n">
-        <v>1244478.477078711</v>
+        <v>1313532.674031061</v>
       </c>
       <c r="AE5" t="n">
-        <v>1702750.354854676</v>
+        <v>1797233.353581042</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.493767386217495e-06</v>
+        <v>2.898772418078442e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.73020833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1540242.250812478</v>
+        <v>1625707.924748121</v>
       </c>
     </row>
     <row r="6">
@@ -21651,28 +21651,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1214.135744631908</v>
+        <v>1283.189941584258</v>
       </c>
       <c r="AB6" t="n">
-        <v>1661.234089694081</v>
+        <v>1755.717088420447</v>
       </c>
       <c r="AC6" t="n">
-        <v>1502.688239730365</v>
+        <v>1588.153913666009</v>
       </c>
       <c r="AD6" t="n">
-        <v>1214135.744631908</v>
+        <v>1283189.941584258</v>
       </c>
       <c r="AE6" t="n">
-        <v>1661234.089694081</v>
+        <v>1755717.088420447</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.507154053152077e-06</v>
+        <v>2.924750292035263e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.63541666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1502688.239730366</v>
+        <v>1588153.913666009</v>
       </c>
     </row>
     <row r="7">
@@ -21757,28 +21757,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1221.007224321152</v>
+        <v>1290.061421273502</v>
       </c>
       <c r="AB7" t="n">
-        <v>1670.635951353192</v>
+        <v>1765.118950079559</v>
       </c>
       <c r="AC7" t="n">
-        <v>1511.192800908328</v>
+        <v>1596.658474843971</v>
       </c>
       <c r="AD7" t="n">
-        <v>1221007.224321152</v>
+        <v>1290061.421273502</v>
       </c>
       <c r="AE7" t="n">
-        <v>1670635.951353193</v>
+        <v>1765118.950079559</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.507154053152077e-06</v>
+        <v>2.924750292035263e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.63541666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1511192.800908328</v>
+        <v>1596658.474843971</v>
       </c>
     </row>
   </sheetData>
@@ -22054,28 +22054,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6329.317293760806</v>
+        <v>6473.074010864279</v>
       </c>
       <c r="AB2" t="n">
-        <v>8660.051151095982</v>
+        <v>8856.745433535722</v>
       </c>
       <c r="AC2" t="n">
-        <v>7833.548023693183</v>
+        <v>8011.470079879025</v>
       </c>
       <c r="AD2" t="n">
-        <v>6329317.293760806</v>
+        <v>6473074.010864279</v>
       </c>
       <c r="AE2" t="n">
-        <v>8660051.151095983</v>
+        <v>8856745.433535721</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.406909728053438e-07</v>
+        <v>1.20218756271891e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.10833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>7833548.023693183</v>
+        <v>8011470.079879025</v>
       </c>
     </row>
     <row r="3">
@@ -22160,28 +22160,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2389.183055078882</v>
+        <v>2484.907019002735</v>
       </c>
       <c r="AB3" t="n">
-        <v>3268.98565927651</v>
+        <v>3399.959409760374</v>
       </c>
       <c r="AC3" t="n">
-        <v>2956.998256005226</v>
+        <v>3075.472055565717</v>
       </c>
       <c r="AD3" t="n">
-        <v>2389183.055078882</v>
+        <v>2484907.019002735</v>
       </c>
       <c r="AE3" t="n">
-        <v>3268985.65927651</v>
+        <v>3399959.409760374</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.112794665795905e-06</v>
+        <v>2.088039263643931e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.87916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2956998.256005226</v>
+        <v>3075472.055565717</v>
       </c>
     </row>
     <row r="4">
@@ -22266,28 +22266,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1846.096532590478</v>
+        <v>1917.932265469204</v>
       </c>
       <c r="AB4" t="n">
-        <v>2525.910719921279</v>
+        <v>2624.199538814818</v>
       </c>
       <c r="AC4" t="n">
-        <v>2284.841345949952</v>
+        <v>2373.749617917516</v>
       </c>
       <c r="AD4" t="n">
-        <v>1846096.532590478</v>
+        <v>1917932.265469204</v>
       </c>
       <c r="AE4" t="n">
-        <v>2525910.719921279</v>
+        <v>2624199.538814818</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.28538533747964e-06</v>
+        <v>2.411887058831344e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.015625</v>
       </c>
       <c r="AH4" t="n">
-        <v>2284841.345949952</v>
+        <v>2373749.617917516</v>
       </c>
     </row>
     <row r="5">
@@ -22372,28 +22372,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1594.435851971413</v>
+        <v>1654.370095000586</v>
       </c>
       <c r="AB5" t="n">
-        <v>2181.577474212619</v>
+        <v>2263.582149637324</v>
       </c>
       <c r="AC5" t="n">
-        <v>1973.370781936981</v>
+        <v>2047.549046233438</v>
       </c>
       <c r="AD5" t="n">
-        <v>1594435.851971413</v>
+        <v>1654370.095000586</v>
       </c>
       <c r="AE5" t="n">
-        <v>2181577.474212619</v>
+        <v>2263582.149637324</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.378649540648944e-06</v>
+        <v>2.586887284924885e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.203125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1973370.781936981</v>
+        <v>2047549.046233438</v>
       </c>
     </row>
     <row r="6">
@@ -22478,28 +22478,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1435.531072828184</v>
+        <v>1507.366716198359</v>
       </c>
       <c r="AB6" t="n">
-        <v>1964.156945004765</v>
+        <v>2062.445641428756</v>
       </c>
       <c r="AC6" t="n">
-        <v>1776.700562885096</v>
+        <v>1865.608724071433</v>
       </c>
       <c r="AD6" t="n">
-        <v>1435531.072828184</v>
+        <v>1507366.716198359</v>
       </c>
       <c r="AE6" t="n">
-        <v>1964156.945004765</v>
+        <v>2062445.641428756</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.435141848133053e-06</v>
+        <v>2.692889011700147e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.7625</v>
       </c>
       <c r="AH6" t="n">
-        <v>1776700.562885096</v>
+        <v>1865608.724071433</v>
       </c>
     </row>
     <row r="7">
@@ -22584,28 +22584,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1344.113206090175</v>
+        <v>1404.132700465369</v>
       </c>
       <c r="AB7" t="n">
-        <v>1839.074986662181</v>
+        <v>1921.196306739535</v>
       </c>
       <c r="AC7" t="n">
-        <v>1663.556251093097</v>
+        <v>1737.840027640265</v>
       </c>
       <c r="AD7" t="n">
-        <v>1344113.206090175</v>
+        <v>1404132.700465369</v>
       </c>
       <c r="AE7" t="n">
-        <v>1839074.986662181</v>
+        <v>1921196.306739535</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.466724161765902e-06</v>
+        <v>2.75214981958238e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.53020833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1663556.251093097</v>
+        <v>1737840.027640265</v>
       </c>
     </row>
     <row r="8">
@@ -22690,28 +22690,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1327.810511544113</v>
+        <v>1387.659413718714</v>
       </c>
       <c r="AB8" t="n">
-        <v>1816.768920760136</v>
+        <v>1898.656829062644</v>
       </c>
       <c r="AC8" t="n">
-        <v>1643.379044813983</v>
+        <v>1717.4516860785</v>
       </c>
       <c r="AD8" t="n">
-        <v>1327810.511544113</v>
+        <v>1387659.413718714</v>
       </c>
       <c r="AE8" t="n">
-        <v>1816768.920760136</v>
+        <v>1898656.829062643</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.474286124185034e-06</v>
+        <v>2.766339027103478e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.47604166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1643379.044813983</v>
+        <v>1717451.6860785</v>
       </c>
     </row>
     <row r="9">
@@ -22796,28 +22796,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1334.06197237651</v>
+        <v>1393.910874551112</v>
       </c>
       <c r="AB9" t="n">
-        <v>1825.322445266009</v>
+        <v>1907.210353568517</v>
       </c>
       <c r="AC9" t="n">
-        <v>1651.116232945963</v>
+        <v>1725.188874210481</v>
       </c>
       <c r="AD9" t="n">
-        <v>1334061.97237651</v>
+        <v>1393910.874551112</v>
       </c>
       <c r="AE9" t="n">
-        <v>1825322.44526601</v>
+        <v>1907210.353568517</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.47413785041211e-06</v>
+        <v>2.766060807348162e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.47708333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1651116.232945963</v>
+        <v>1725188.874210481</v>
       </c>
     </row>
   </sheetData>
@@ -23093,28 +23093,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>986.8441151332436</v>
+        <v>1059.955066638518</v>
       </c>
       <c r="AB2" t="n">
-        <v>1350.243654815013</v>
+        <v>1450.277284092071</v>
       </c>
       <c r="AC2" t="n">
-        <v>1221.378295478339</v>
+        <v>1311.864855575275</v>
       </c>
       <c r="AD2" t="n">
-        <v>986844.1151332436</v>
+        <v>1059955.066638518</v>
       </c>
       <c r="AE2" t="n">
-        <v>1350243.654815013</v>
+        <v>1450277.284092071</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.283363682946072e-06</v>
+        <v>3.20959517717927e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.46354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1221378.295478339</v>
+        <v>1311864.855575275</v>
       </c>
     </row>
   </sheetData>
@@ -23390,28 +23390,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2024.291225700848</v>
+        <v>2110.71746064102</v>
       </c>
       <c r="AB2" t="n">
-        <v>2769.724560429918</v>
+        <v>2887.976747931448</v>
       </c>
       <c r="AC2" t="n">
-        <v>2505.385935715321</v>
+        <v>2612.352300409694</v>
       </c>
       <c r="AD2" t="n">
-        <v>2024291.225700848</v>
+        <v>2110717.46064102</v>
       </c>
       <c r="AE2" t="n">
-        <v>2769724.560429918</v>
+        <v>2887976.747931448</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.137382721562148e-06</v>
+        <v>2.342193424063489e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.95520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2505385.935715321</v>
+        <v>2612352.300409694</v>
       </c>
     </row>
     <row r="3">
@@ -23496,28 +23496,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1165.374345157917</v>
+        <v>1230.087434803382</v>
       </c>
       <c r="AB3" t="n">
-        <v>1594.516591732646</v>
+        <v>1683.059895925595</v>
       </c>
       <c r="AC3" t="n">
-        <v>1442.338166135773</v>
+        <v>1522.431021647855</v>
       </c>
       <c r="AD3" t="n">
-        <v>1165374.345157917</v>
+        <v>1230087.434803382</v>
       </c>
       <c r="AE3" t="n">
-        <v>1594516.591732646</v>
+        <v>1683059.895925595</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.496152260581824e-06</v>
+        <v>3.081001601043746e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.36979166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1442338.166135773</v>
+        <v>1522431.021647855</v>
       </c>
     </row>
     <row r="4">
@@ -23602,28 +23602,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1089.423097073853</v>
+        <v>1143.492921454118</v>
       </c>
       <c r="AB4" t="n">
-        <v>1490.596743371446</v>
+        <v>1564.577462480825</v>
       </c>
       <c r="AC4" t="n">
-        <v>1348.336282249744</v>
+        <v>1415.256385359914</v>
       </c>
       <c r="AD4" t="n">
-        <v>1089423.097073853</v>
+        <v>1143492.921454119</v>
       </c>
       <c r="AE4" t="n">
-        <v>1490596.743371446</v>
+        <v>1564577.462480825</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.540243191640227e-06</v>
+        <v>3.171797326025389e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.04375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1348336.282249744</v>
+        <v>1415256.385359915</v>
       </c>
     </row>
     <row r="5">
@@ -23708,28 +23708,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1095.353726707672</v>
+        <v>1149.423551087938</v>
       </c>
       <c r="AB5" t="n">
-        <v>1498.711292477351</v>
+        <v>1572.69201158673</v>
       </c>
       <c r="AC5" t="n">
-        <v>1355.676390177822</v>
+        <v>1422.596493287993</v>
       </c>
       <c r="AD5" t="n">
-        <v>1095353.726707672</v>
+        <v>1149423.551087938</v>
       </c>
       <c r="AE5" t="n">
-        <v>1498711.292477351</v>
+        <v>1572692.01158673</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.541549589597513e-06</v>
+        <v>3.174487569728549e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.034375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1355676.390177822</v>
+        <v>1422596.493287993</v>
       </c>
     </row>
   </sheetData>
@@ -24005,28 +24005,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3014.945969482189</v>
+        <v>3116.127143240559</v>
       </c>
       <c r="AB2" t="n">
-        <v>4125.182085474564</v>
+        <v>4263.622631209121</v>
       </c>
       <c r="AC2" t="n">
-        <v>3731.480496966136</v>
+        <v>3856.708471318308</v>
       </c>
       <c r="AD2" t="n">
-        <v>3014945.969482189</v>
+        <v>3116127.143240559</v>
       </c>
       <c r="AE2" t="n">
-        <v>4125182.085474564</v>
+        <v>4263622.631209121</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.41763683843819e-07</v>
+        <v>1.86580724748544e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.38854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3731480.496966136</v>
+        <v>3856708.471318308</v>
       </c>
     </row>
     <row r="3">
@@ -24111,28 +24111,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1552.066248649521</v>
+        <v>1619.548841276141</v>
       </c>
       <c r="AB3" t="n">
-        <v>2123.60551373263</v>
+        <v>2215.938174086245</v>
       </c>
       <c r="AC3" t="n">
-        <v>1920.931584001045</v>
+        <v>2004.452144840214</v>
       </c>
       <c r="AD3" t="n">
-        <v>1552066.248649521</v>
+        <v>1619548.841276141</v>
       </c>
       <c r="AE3" t="n">
-        <v>2123605.51373263</v>
+        <v>2215938.174086245</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.348813129164628e-06</v>
+        <v>2.67224714126504e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.14166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1920931.584001045</v>
+        <v>2004452.144840213</v>
       </c>
     </row>
     <row r="4">
@@ -24217,28 +24217,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1226.418650266279</v>
+        <v>1293.901153384348</v>
       </c>
       <c r="AB4" t="n">
-        <v>1678.040103066579</v>
+        <v>1770.372640950645</v>
       </c>
       <c r="AC4" t="n">
-        <v>1517.89031077398</v>
+        <v>1601.410760831922</v>
       </c>
       <c r="AD4" t="n">
-        <v>1226418.650266279</v>
+        <v>1293901.153384348</v>
       </c>
       <c r="AE4" t="n">
-        <v>1678040.103066579</v>
+        <v>1770372.640950645</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.490785183673972e-06</v>
+        <v>2.953519919976117e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.98541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1517890.31077398</v>
+        <v>1601410.760831922</v>
       </c>
     </row>
     <row r="5">
@@ -24323,28 +24323,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1159.520459158058</v>
+        <v>1227.002962276128</v>
       </c>
       <c r="AB5" t="n">
-        <v>1586.507046652416</v>
+        <v>1678.839584536482</v>
       </c>
       <c r="AC5" t="n">
-        <v>1435.093040796533</v>
+        <v>1518.613490854475</v>
       </c>
       <c r="AD5" t="n">
-        <v>1159520.459158059</v>
+        <v>1227002.962276128</v>
       </c>
       <c r="AE5" t="n">
-        <v>1586507.046652416</v>
+        <v>1678839.584536482</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.522858604626249e-06</v>
+        <v>3.017063271977291e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.75416666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1435093.040796533</v>
+        <v>1518613.490854474</v>
       </c>
     </row>
     <row r="6">
@@ -24429,28 +24429,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1166.979998817157</v>
+        <v>1234.462501935227</v>
       </c>
       <c r="AB6" t="n">
-        <v>1596.713517905658</v>
+        <v>1689.046055789724</v>
       </c>
       <c r="AC6" t="n">
-        <v>1444.325420758238</v>
+        <v>1527.84587081618</v>
       </c>
       <c r="AD6" t="n">
-        <v>1166979.998817157</v>
+        <v>1234462.501935227</v>
       </c>
       <c r="AE6" t="n">
-        <v>1596713.517905658</v>
+        <v>1689046.055789724</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.522701381974522e-06</v>
+        <v>3.016751784957677e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.75520833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1444325.420758238</v>
+        <v>1527845.87081618</v>
       </c>
     </row>
   </sheetData>
